--- a/OrderForwarding/192023.xlsx
+++ b/OrderForwarding/192023.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">OrderRef</t>
   </si>
   <si>
-    <t xml:space="preserve">workdivyeshvishwakarma@gmail.com</t>
+    <t xml:space="preserve">workdivyeshvishwakarma@gmail.com, ajit0810@gmail.com, ajit0810@outlook.com</t>
   </si>
   <si>
     <t xml:space="preserve">Order Number 22B42C003 dated 06/05/2022 00:00:00 on SHM SHIPCARE</t>
@@ -56,7 +56,25 @@
     <t xml:space="preserve">22B42C003S4266B652022.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">divyesh1099@gmail.com</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">divyesh1099@gmail.com, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ajit0810@gmail.com, ajit0810@outlook.com</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Order Number 22B42C003 dated 07/05/2022 00:00:00 on SHM SHIPCARE</t>
@@ -163,7 +181,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -174,10 +192,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -199,11 +213,11 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="255"/>
   </cols>
@@ -237,7 +251,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -254,9 +268,6 @@
       <c r="A4" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="divyesh1099@gmail.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
